--- a/3_WordEmbedding_Models/Word2Vec/8_edRVFL/WE_Accuracy Report.xlsx
+++ b/3_WordEmbedding_Models/Word2Vec/8_edRVFL/WE_Accuracy Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diardano Raihan\Documents\My Life\AI\Portofolio\Text_Classification_Capstone\3_WordEmbedding_Models\Word2Vec\8_edRVFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F901B202-D7B7-4DC1-BB13-1265AC69C16D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47673D5D-46CE-4CE3-8CEA-C91D3B7D9BB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{941F8B58-7452-46B6-8CAA-376EAF70D953}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{941F8B58-7452-46B6-8CAA-376EAF70D953}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="1" r:id="rId1"/>
@@ -507,6 +507,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,30 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,34 +911,34 @@
       <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="26"/>
+      <c r="M1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -994,206 +994,206 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <f>0.791005291005291*$A$2</f>
         <v>79.100529100529101</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
         <f>0.780423280423281*$A$2</f>
         <v>78.042328042328108</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
         <f>0.806878306878307*$A$2</f>
         <v>80.687830687830697</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
         <f>0.791005291005291*$A$2</f>
         <v>79.100529100529101</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
         <f>0.804232804232804*$A$2</f>
         <v>80.423280423280403</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="23"/>
+      <c r="M3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="25"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="29">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23">
         <f>0.772486772486772*$A$2</f>
         <v>77.248677248677197</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
         <f>0.76984126984127*$A$2</f>
         <v>76.984126984127002</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>0.772486772486772*$A$2</f>
         <v>77.248677248677197</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
         <f>0.783068783068783*$A$2</f>
         <v>78.306878306878303</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <f>0.761904761904762*$A$2</f>
         <v>76.190476190476204</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="M4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23">
         <f>0.761904761904762*$A$2</f>
         <v>76.190476190476204</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
         <f>0.772486772486772*$A$2</f>
         <v>77.248677248677197</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <f>0.759259259259259*$A$2</f>
         <v>75.925925925925895</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <f>0.777777777777778*$A$2</f>
         <v>77.7777777777778</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
         <f>0.761904761904762*$A$2</f>
         <v>76.190476190476204</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="M5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="29">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23">
         <f>0.804232804232804*$A$2</f>
         <v>80.423280423280403</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
         <f>0.806878306878307*$A$2</f>
         <v>80.687830687830697</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>0.793650793650794*$A$2</f>
         <v>79.36507936507941</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <f>0.796296296296296*$A$2</f>
         <v>79.629629629629591</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23">
         <f>0.801587301587302*$A$2</f>
         <v>80.158730158730194</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="29">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23">
         <f>0.791005291005291*$A$2</f>
         <v>79.100529100529101</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <f>0.791005291005291*$A$2</f>
         <v>79.100529100529101</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <f>0.783068783068783*$A$2</f>
         <v>78.306878306878303</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
         <f>0.783068783068783*$A$2</f>
         <v>78.306878306878303</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
         <f>0.783068783068783*$A$2</f>
         <v>78.306878306878303</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="25"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="29">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23">
         <f>0.737400530503979*$A$2</f>
         <v>73.740053050397904</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
         <f>0.758620689655172*$A$2</f>
         <v>75.86206896551721</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <f>0.748010610079576*$A$2</f>
         <v>74.8010610079576</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <f>0.742705570291777*$A$2</f>
         <v>74.270557029177695</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
         <f>0.763925729442971*$A$2</f>
         <v>76.3925729442971</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="23"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1202,138 +1202,138 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23">
         <f>0.795755968169761*$A$2</f>
         <v>79.575596816976102</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
         <f>0.795755968169761*$A$2</f>
         <v>79.575596816976102</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <f>0.795755968169761*$A$2</f>
         <v>79.575596816976102</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <f>0.782493368700265*$A$2</f>
         <v>78.249336870026497</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <f>0.790450928381963*$A$2</f>
         <v>79.045092838196297</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="25"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23">
         <f>0.80106100795756*$A$2</f>
         <v>80.106100795755992</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <f>0.793103448275862*$A$2</f>
         <v>79.310344827586192</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
         <f>0.787798408488064*$A$2</f>
         <v>78.779840848806401</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <f>0.790450928381963*$A$2</f>
         <v>79.045092838196297</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
         <f>0.774535809018568*$A$2</f>
         <v>77.453580901856796</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="25"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
         <f>0.774535809018568*$A$2</f>
         <v>77.453580901856796</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
         <f>0.798408488063661*$A$2</f>
         <v>79.840848806366111</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
         <f>0.785145888594165*$A$2</f>
         <v>78.514588859416506</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <f>0.777188328912467*$A$2</f>
         <v>77.718832891246706</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
         <f>0.785145888594165*$A$2</f>
         <v>78.514588859416506</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23">
         <f>0.787798408488064*$A$2</f>
         <v>78.779840848806401</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <f>0.787798408488064*$A$2</f>
         <v>78.779840848806401</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
         <f>0.790450928381963*$A$2</f>
         <v>79.045092838196297</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
         <f>0.793103448275862*$A$2</f>
         <v>79.310344827586192</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23">
         <f>0.790450928381963*$A$2</f>
         <v>79.045092838196297</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="25"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
@@ -1341,49 +1341,81 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <f>AVERAGE(B3:C12)</f>
         <v>78.171866447728533</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="30">
+      <c r="C13" s="25"/>
+      <c r="D13" s="27">
         <f>AVERAGE(D3:E12)</f>
         <v>78.543219232874407</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
         <f>AVERAGE(F3:G12)</f>
         <v>78.225057190574447</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32">
+      <c r="G13" s="28"/>
+      <c r="H13" s="29">
         <f>AVERAGE(H3:I12)</f>
         <v>78.171585757792641</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33">
+      <c r="I13" s="29"/>
+      <c r="J13" s="25">
         <f>AVERAGE(J3:K12)</f>
         <v>78.172076965180423</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="M13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
-      <c r="P13" s="27"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D1:E1"/>
@@ -1400,47 +1432,15 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1466,34 +1466,34 @@
       <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="26"/>
+      <c r="M1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -1549,206 +1549,206 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <f>0.870876531573987*$A$2</f>
         <v>87.087653157398705</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
         <f>0.870876531573987*$A$2</f>
         <v>87.087653157398705</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
         <f>0.866163996229972*$A$2</f>
         <v>86.616399622997193</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
         <f>0.868049010367578*$A$2</f>
         <v>86.804901036757798</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
         <f>0.867106503298775*$A$2</f>
         <v>86.71065032987751</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="23"/>
+      <c r="M3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="25"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="29">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23">
         <f>0.85296889726673*$A$2</f>
         <v>85.296889726673001</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
         <f>0.85296889726673*$A$2</f>
         <v>85.296889726673001</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>0.851083883129123*$A$2</f>
         <v>85.108388312912297</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
         <f>0.85296889726673*$A$2</f>
         <v>85.296889726673001</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <f>0.847313854853911*$A$2</f>
         <v>84.731385485391101</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="M4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="25"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23">
         <f>0.888784165881244*$A$2</f>
         <v>88.878416588124395</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
         <f>0.89066918001885*$A$2</f>
         <v>89.066918001885</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <f>0.891611687087653*$A$2</f>
         <v>89.161168708765302</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <f>0.891611687087653*$A$2</f>
         <v>89.161168708765302</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
         <f>0.882186616399623*$A$2</f>
         <v>88.218661639962306</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="M5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="29">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23">
         <f>0.869934024505184*$A$2</f>
         <v>86.993402450518403</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
         <f>0.868049010367578*$A$2</f>
         <v>86.804901036757798</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>0.866163996229972*$A$2</f>
         <v>86.616399622997193</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <f>0.872761545711593*$A$2</f>
         <v>87.27615457115931</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23">
         <f>0.863336475023563*$A$2</f>
         <v>86.3336475023563</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="25"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="29">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23">
         <f>0.869934024505184*$A$2</f>
         <v>86.993402450518403</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <f>0.866163996229972*$A$2</f>
         <v>86.616399622997193</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <f>0.873704052780396*$A$2</f>
         <v>87.370405278039598</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
         <f>0.87181903864279*$A$2</f>
         <v>87.181903864278993</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
         <f>0.861451460885957*$A$2</f>
         <v>86.145146088595709</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="25"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="29">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23">
         <f>0.880301602262017*$A$2</f>
         <v>88.030160226201701</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
         <f>0.878416588124411*$A$2</f>
         <v>87.841658812441096</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <f>0.876531573986805*$A$2</f>
         <v>87.653157398680506</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <f>0.868049010367578*$A$2</f>
         <v>86.804901036757798</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
         <f>0.879359095193214*$A$2</f>
         <v>87.935909519321399</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="23"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1757,138 +1757,138 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23">
         <f>0.847169811320755*$A$2</f>
         <v>84.716981132075503</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
         <f>0.85188679245283*$A$2</f>
         <v>85.188679245283012</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <f>0.854716981132076*$A$2</f>
         <v>85.471698113207594</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <f>0.847169811320755*$A$2</f>
         <v>84.716981132075503</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <f>0.856603773584906*$A$2</f>
         <v>85.660377358490607</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="25"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23">
         <f>0.868867924528302*$A$2</f>
         <v>86.886792452830193</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <f>0.867924528301887*$A$2</f>
         <v>86.792452830188708</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
         <f>0.870754716981132*$A$2</f>
         <v>87.075471698113205</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <f>0.882075471698113*$A$2</f>
         <v>88.207547169811292</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
         <f>0.872641509433962*$A$2</f>
         <v>87.264150943396203</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="25"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
         <f>0.859433962264151*$A$2</f>
         <v>85.943396226415103</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
         <f>0.859433962264151*$A$2</f>
         <v>85.943396226415103</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
         <f>0.865094339622642*$A$2</f>
         <v>86.509433962264211</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <f>0.855660377358491*$A$2</f>
         <v>85.566037735849093</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
         <f>0.863207547169811*$A$2</f>
         <v>86.320754716981099</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="25"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23">
         <f>0.85377358490566*$A$2</f>
         <v>85.377358490565996</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <f>0.857547169811321*$A$2</f>
         <v>85.754716981132091</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
         <f>0.85*$A$2</f>
         <v>85</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
         <f>0.845283018867925*$A$2</f>
         <v>84.528301886792505</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23">
         <f>0.85377358490566*$A$2</f>
         <v>85.377358490565996</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="25"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
@@ -1896,45 +1896,91 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <f>AVERAGE(B3:C12)</f>
         <v>86.620445290132125</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25">
         <f>AVERAGE(D3:E12)</f>
         <v>86.639366564117168</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
         <f>AVERAGE(F3:G12)</f>
         <v>86.658252271797707</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32">
+      <c r="G13" s="25"/>
+      <c r="H13" s="29">
         <f>AVERAGE(H3:I12)</f>
         <v>86.554478686892054</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33">
+      <c r="I13" s="29"/>
+      <c r="J13" s="25">
         <f>AVERAGE(J3:K12)</f>
         <v>86.469804207493823</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="M13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="27"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -1945,57 +1991,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2019,34 +2019,34 @@
       <c r="A1" s="2">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="M1" s="23" t="s">
+      <c r="K1" s="26"/>
+      <c r="M1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -2102,35 +2102,35 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <f>0.753514526710403*$A$2</f>
         <v>75.351452671040292</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
         <f>0.754451733833177*$A$2</f>
         <v>75.445173383317695</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
         <f>0.767572633552015*$A$2</f>
         <v>76.757263355201502</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
         <f>0.758200562324274*$A$2</f>
         <v>75.820056232427405</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
         <f>0.760074976569822*$A$2</f>
         <v>76.00749765698221</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="23"/>
+      <c r="M3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="14">
@@ -2139,7 +2139,7 @@
       <c r="O3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="6">
@@ -2150,40 +2150,40 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="29">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23">
         <f>0.771321462043112*$A$2</f>
         <v>77.132146204311198</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
         <f>0.771321462043112*$A$2</f>
         <v>77.132146204311198</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f>0.772258669165886*$A$2</f>
         <v>77.2258669165886</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
         <f>0.769447047797563*$A$2</f>
         <v>76.944704779756307</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <f>0.769447047797563*$A$2</f>
         <v>76.944704779756307</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="M4" s="24"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6">
         <v>77.986999999999995</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="6">
         <v>77.56241842448739</v>
       </c>
@@ -2192,40 +2192,40 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23">
         <f>0.768292682926829*$A$2</f>
         <v>76.829268292682897</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
         <f>0.765478424015009*$A$2</f>
         <v>76.547842401500901</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <f>0.773921200750469*$A$2</f>
         <v>77.392120075046904</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <f>0.764540337711069*$A$2</f>
         <v>76.454033771106893</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
         <f>0.773921200750469*$A$2</f>
         <v>77.392120075046904</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="M5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="6">
         <v>77.986999999999995</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="6">
         <v>77.45659831866729</v>
       </c>
@@ -2234,40 +2234,40 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="29">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23">
         <f>0.75797373358349*$A$2</f>
         <v>75.797373358348992</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
         <f>0.767354596622889*$A$2</f>
         <v>76.735459662288889</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f>0.776735459662289*$A$2</f>
         <v>77.6735459662289</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <f>0.76360225140713*$A$2</f>
         <v>76.360225140712998</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23">
         <f>0.75891181988743*$A$2</f>
         <v>75.891181988743</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="6">
         <v>77.430000000000007</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="6">
         <v>77.323972323972313</v>
       </c>
@@ -2276,40 +2276,40 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="29">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23">
         <f>0.766416510318949*$A$2</f>
         <v>76.641651031894895</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <f>0.75891181988743*$A$2</f>
         <v>75.891181988743</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <f>0.76360225140713*$A$2</f>
         <v>76.360225140712998</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
         <f>0.76266416510319*$A$2</f>
         <v>76.266416510319004</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
         <f>0.770168855534709*$A$2</f>
         <v>77.0168855534709</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="6">
         <v>76.742000000000004</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="6">
         <v>77.2182223906362</v>
       </c>
@@ -2318,32 +2318,32 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="29">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23">
         <f>0.75797373358349*$A$2</f>
         <v>75.797373358348992</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
         <f>0.771106941838649*$A$2</f>
         <v>77.110694183864908</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <f>0.769230769230769*$A$2</f>
         <v>76.923076923076906</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
         <f>0.76172607879925*$A$2</f>
         <v>76.172607879924996</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
         <f>0.767354596622889*$A$2</f>
         <v>76.735459662288889</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="23"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2352,33 +2352,33 @@
       <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23">
         <f>0.765478424015009*$A$2</f>
         <v>76.547842401500901</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
         <f>0.778611632270169*$A$2</f>
         <v>77.861163227016903</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <f>0.764540337711069*$A$2</f>
         <v>76.454033771106893</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <f>0.770168855534709*$A$2</f>
         <v>77.0168855534709</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <f>0.75797373358349*$A$2</f>
         <v>75.797373358348992</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="M9" s="24" t="s">
+      <c r="K9" s="23"/>
+      <c r="M9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="6">
@@ -2387,123 +2387,123 @@
       <c r="O9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23">
         <f>0.75703564727955*$A$2</f>
         <v>75.703564727954998</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <f>0.76078799249531*$A$2</f>
         <v>76.078799249531002</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
         <f>0.766416510318949*$A$2</f>
         <v>76.641651031894895</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <f>0.76172607879925*$A$2</f>
         <v>76.172607879924996</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
         <f>0.764540337711069*$A$2</f>
         <v>76.454033771106893</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="6">
         <v>75.47050650498926</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
         <f>0.768292682926829*$A$2</f>
         <v>76.829268292682897</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
         <f>0.774859287054409*$A$2</f>
         <v>77.485928705440898</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
         <f>0.776735459662289*$A$2</f>
         <v>77.6735459662289</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <f>0.771106941838649*$A$2</f>
         <v>77.110694183864908</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
         <f>0.771106941838649*$A$2</f>
         <v>77.110694183864908</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="6">
         <v>75.285531837256002</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23">
         <f>0.771106941838649*$A$2</f>
         <v>77.110694183864908</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <f>0.765478424015009*$A$2</f>
         <v>76.547842401500901</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
         <f>0.766416510318949*$A$2</f>
         <v>76.641651031894895</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
         <f>0.76172607879925*$A$2</f>
         <v>76.172607879924996</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23">
         <f>0.768292682926829*$A$2</f>
         <v>76.829268292682897</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="6">
         <v>75.046945391772979</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
@@ -2511,87 +2511,54 @@
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="25">
         <f>AVERAGE(B3:C12)</f>
         <v>76.374063452263101</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25">
         <f>AVERAGE(D3:E12)</f>
         <v>76.683623140751635</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
         <f>AVERAGE(F3:G12)</f>
         <v>76.974298017798134</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32">
+      <c r="G13" s="25"/>
+      <c r="H13" s="29">
         <f>AVERAGE(H3:I12)</f>
         <v>76.449083981143332</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33">
+      <c r="I13" s="29"/>
+      <c r="J13" s="25">
         <f>AVERAGE(J3:K12)</f>
         <v>76.61792193222918</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="M13" s="26"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="11">
         <v>74.914670259497854</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -2605,570 +2572,34 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="P9:P13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF723946-E1B7-4CB3-8789-B4FD15B27E1D}">
-  <dimension ref="A1:R13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2">
-        <v>100</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="28"/>
-      <c r="M1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29">
-        <f>0.906*$A$2</f>
-        <v>90.600000000000009</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
-        <f>0.909*$A$2</f>
-        <v>90.9</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
-        <f>0.907*$A$2</f>
-        <v>90.7</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29">
-        <f>0.905*$A$2</f>
-        <v>90.5</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="M3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>78.039000000000001</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>77.615188132429509</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <f>0.913*$A$2</f>
-        <v>91.3</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
-        <f>0.9*$A$2</f>
-        <v>90</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
-        <f>0.907*$A$2</f>
-        <v>90.7</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="6">
-        <v>77.986999999999995</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="6">
-        <v>77.56241842448739</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29">
-        <f>0.894*$A$2</f>
-        <v>89.4</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
-        <f>0.894*$A$2</f>
-        <v>89.4</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29">
-        <f>0.889*$A$2</f>
-        <v>88.9</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29">
-        <f>0.888*$A$2</f>
-        <v>88.8</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
-        <f>0.891*$A$2</f>
-        <v>89.1</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="6">
-        <v>77.986999999999995</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="6">
-        <v>77.45659831866729</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="29">
-        <f>0.91*$A$2</f>
-        <v>91</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29">
-        <f>0.912*$A$2</f>
-        <v>91.2</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
-        <f>0.903*$A$2</f>
-        <v>90.3</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="6">
-        <v>77.430000000000007</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="6">
-        <v>77.323972323972313</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="29">
-        <f>0.907*$A$2</f>
-        <v>90.7</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
-        <f>0.91*$A$2</f>
-        <v>91</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
-        <f>0.901*$A$2</f>
-        <v>90.100000000000009</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
-        <f>0.897*$A$2</f>
-        <v>89.7</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29">
-        <f>0.899*$A$2</f>
-        <v>89.9</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="6">
-        <v>76.742000000000004</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="6">
-        <v>77.2182223906362</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="29">
-        <f>0.907*$A$2</f>
-        <v>90.7</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
-        <f>0.901*$A$2</f>
-        <v>90.100000000000009</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
-        <f>0.896*$A$2</f>
-        <v>89.600000000000009</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <f>0.898*$A$2</f>
-        <v>89.8</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
-        <f>0.901*$A$2</f>
-        <v>90.100000000000009</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29">
-        <f>0.914*$A$2</f>
-        <v>91.4</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
-        <f>0.913*$A$2</f>
-        <v>91.3</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
-        <f>0.909*$A$2</f>
-        <v>90.9</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29">
-        <f>0.908*$A$2</f>
-        <v>90.8</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
-        <f>0.909*$A$2</f>
-        <v>90.9</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="M9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="6">
-        <v>75.947889913407167</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="29">
-        <f>0.917*$A$2</f>
-        <v>91.7</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
-        <f>0.91*$A$2</f>
-        <v>91</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
-        <f>0.911*$A$2</f>
-        <v>91.100000000000009</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
-        <f>0.909*$A$2</f>
-        <v>90.9</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29">
-        <f>0.912*$A$2</f>
-        <v>91.2</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="6">
-        <v>75.47050650498926</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29">
-        <f>0.896*$A$2</f>
-        <v>89.600000000000009</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
-        <f>0.895*$A$2</f>
-        <v>89.5</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29">
-        <f>0.898*$A$2</f>
-        <v>89.8</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29">
-        <f>0.898*$A$2</f>
-        <v>89.8</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
-        <f>0.892*$A$2</f>
-        <v>89.2</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="6">
-        <v>75.285531837256002</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="29">
-        <f>0.897*$A$2</f>
-        <v>89.7</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
-        <f>0.904*$A$2</f>
-        <v>90.4</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <f>0.903*$A$2</f>
-        <v>90.3</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>0.899*$A$2</f>
-        <v>89.9</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29">
-        <f>0.898*$A$2</f>
-        <v>89.8</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="6">
-        <v>75.046945391772979</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="33">
-        <f>AVERAGE(B3:C12)</f>
-        <v>90.580000000000013</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33">
-        <f>AVERAGE(D3:E12)</f>
-        <v>90.49</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33">
-        <f>AVERAGE(F3:G12)</f>
-        <v>90.36999999999999</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="30">
-        <f>AVERAGE(H3:I12)</f>
-        <v>90.159999999999982</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="33">
-        <f>AVERAGE(J3:K12)</f>
-        <v>90.17</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="11">
-        <v>74.914670259497854</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -3179,34 +2610,570 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF723946-E1B7-4CB3-8789-B4FD15B27E1D}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>100</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="M1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
+        <f>0.906*$A$2</f>
+        <v>90.600000000000009</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
+        <f>0.909*$A$2</f>
+        <v>90.9</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
+        <f>0.907*$A$2</f>
+        <v>90.7</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
+        <f>0.905*$A$2</f>
+        <v>90.5</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="M3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>78.039000000000001</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>77.615188132429509</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
+        <f>0.913*$A$2</f>
+        <v>91.3</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
+        <f>0.9*$A$2</f>
+        <v>90</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
+        <f>0.907*$A$2</f>
+        <v>90.7</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="6">
+        <v>77.986999999999995</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="6">
+        <v>77.56241842448739</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23">
+        <f>0.894*$A$2</f>
+        <v>89.4</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
+        <f>0.894*$A$2</f>
+        <v>89.4</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
+        <f>0.889*$A$2</f>
+        <v>88.9</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
+        <f>0.888*$A$2</f>
+        <v>88.8</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23">
+        <f>0.891*$A$2</f>
+        <v>89.1</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="6">
+        <v>77.986999999999995</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="6">
+        <v>77.45659831866729</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23">
+        <f>0.91*$A$2</f>
+        <v>91</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
+        <f>0.912*$A$2</f>
+        <v>91.2</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23">
+        <f>0.903*$A$2</f>
+        <v>90.3</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="6">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="6">
+        <v>77.323972323972313</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="23">
+        <f>0.907*$A$2</f>
+        <v>90.7</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
+        <f>0.91*$A$2</f>
+        <v>91</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <f>0.901*$A$2</f>
+        <v>90.100000000000009</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
+        <f>0.897*$A$2</f>
+        <v>89.7</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
+        <f>0.899*$A$2</f>
+        <v>89.9</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="6">
+        <v>76.742000000000004</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="6">
+        <v>77.2182223906362</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="23">
+        <f>0.907*$A$2</f>
+        <v>90.7</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
+        <f>0.901*$A$2</f>
+        <v>90.100000000000009</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
+        <f>0.896*$A$2</f>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23">
+        <f>0.898*$A$2</f>
+        <v>89.8</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
+        <f>0.901*$A$2</f>
+        <v>90.100000000000009</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23">
+        <f>0.914*$A$2</f>
+        <v>91.4</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <f>0.913*$A$2</f>
+        <v>91.3</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
+        <f>0.909*$A$2</f>
+        <v>90.9</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
+        <f>0.908*$A$2</f>
+        <v>90.8</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
+        <f>0.909*$A$2</f>
+        <v>90.9</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="M9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="6">
+        <v>75.947889913407167</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="23">
+        <f>0.917*$A$2</f>
+        <v>91.7</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
+        <f>0.91*$A$2</f>
+        <v>91</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <f>0.911*$A$2</f>
+        <v>91.100000000000009</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
+        <f>0.909*$A$2</f>
+        <v>90.9</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
+        <f>0.912*$A$2</f>
+        <v>91.2</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="6">
+        <v>75.47050650498926</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23">
+        <f>0.896*$A$2</f>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
+        <f>0.895*$A$2</f>
+        <v>89.5</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23">
+        <f>0.898*$A$2</f>
+        <v>89.8</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
+        <f>0.898*$A$2</f>
+        <v>89.8</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
+        <f>0.892*$A$2</f>
+        <v>89.2</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="6">
+        <v>75.285531837256002</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23">
+        <f>0.897*$A$2</f>
+        <v>89.7</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
+        <f>0.904*$A$2</f>
+        <v>90.4</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23">
+        <f>0.903*$A$2</f>
+        <v>90.3</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
+        <f>0.899*$A$2</f>
+        <v>89.9</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23">
+        <f>0.898*$A$2</f>
+        <v>89.8</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="6">
+        <v>75.046945391772979</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25">
+        <f>AVERAGE(B3:C12)</f>
+        <v>90.580000000000013</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25">
+        <f>AVERAGE(D3:E12)</f>
+        <v>90.49</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25">
+        <f>AVERAGE(F3:G12)</f>
+        <v>90.36999999999999</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27">
+        <f>AVERAGE(H3:I12)</f>
+        <v>90.159999999999982</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25">
+        <f>AVERAGE(J3:K12)</f>
+        <v>90.17</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="11">
+        <v>74.914670259497854</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -3220,16 +3187,49 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FFA0A7-1078-4684-891F-55BA0C124406}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3275,14 +3275,14 @@
         <v>5</v>
       </c>
       <c r="K1" s="41"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
